--- a/investment_results.xlsx
+++ b/investment_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>State</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Gross Patient Revenue</t>
+  </si>
+  <si>
+    <t>Occupancy Rate Avg</t>
   </si>
   <si>
     <t>Investment_Score</t>
@@ -464,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,10 +513,13 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1170</v>
@@ -549,12 +555,15 @@
         <v>15833208</v>
       </c>
       <c r="M2">
+        <v>0.68</v>
+      </c>
+      <c r="N2">
         <v>44385.208</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>606</v>
@@ -590,12 +599,15 @@
         <v>16677396</v>
       </c>
       <c r="M3">
+        <v>0.7622222222222222</v>
+      </c>
+      <c r="N3">
         <v>19910.796</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>697</v>
@@ -631,12 +643,15 @@
         <v>10721617</v>
       </c>
       <c r="M4">
+        <v>0.8733333333333334</v>
+      </c>
+      <c r="N4">
         <v>18212.717</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>292</v>
@@ -672,12 +687,15 @@
         <v>1726879</v>
       </c>
       <c r="M5">
+        <v>0.7944444444444446</v>
+      </c>
+      <c r="N5">
         <v>17519.379</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>412</v>
@@ -713,12 +731,15 @@
         <v>2507578</v>
       </c>
       <c r="M6">
+        <v>0.7144444444444445</v>
+      </c>
+      <c r="N6">
         <v>16589.278</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -754,12 +775,15 @@
         <v>396837</v>
       </c>
       <c r="M7">
+        <v>0.64</v>
+      </c>
+      <c r="N7">
         <v>15299.437</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>946</v>
@@ -795,12 +819,15 @@
         <v>9053725</v>
       </c>
       <c r="M8">
+        <v>0.8744444444444445</v>
+      </c>
+      <c r="N8">
         <v>14582.025</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>672</v>
@@ -836,12 +863,15 @@
         <v>10964321</v>
       </c>
       <c r="M9">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="N9">
         <v>13493.221</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>510</v>
@@ -877,12 +907,15 @@
         <v>3829977</v>
       </c>
       <c r="M10">
+        <v>0.83</v>
+      </c>
+      <c r="N10">
         <v>13168.877</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>694</v>
@@ -918,12 +951,15 @@
         <v>7559970</v>
       </c>
       <c r="M11">
+        <v>0.6411111111111111</v>
+      </c>
+      <c r="N11">
         <v>12576.27</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>98</v>
@@ -959,12 +995,15 @@
         <v>519646</v>
       </c>
       <c r="M12">
+        <v>0.8233333333333333</v>
+      </c>
+      <c r="N12">
         <v>1636.646</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>73</v>
@@ -1000,12 +1039,15 @@
         <v>904564</v>
       </c>
       <c r="M13">
+        <v>0.7655555555555557</v>
+      </c>
+      <c r="N13">
         <v>1615.764</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1041,12 +1083,15 @@
         <v>165283</v>
       </c>
       <c r="M14">
+        <v>0.8155555555555556</v>
+      </c>
+      <c r="N14">
         <v>1489.483</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>80</v>
@@ -1082,12 +1127,15 @@
         <v>632175</v>
       </c>
       <c r="M15">
+        <v>0.8199999999999998</v>
+      </c>
+      <c r="N15">
         <v>1405.075</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>17</v>
@@ -1123,12 +1171,15 @@
         <v>424978</v>
       </c>
       <c r="M16">
+        <v>0.8233333333333334</v>
+      </c>
+      <c r="N16">
         <v>1295.778</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>68</v>
@@ -1164,12 +1215,15 @@
         <v>705338</v>
       </c>
       <c r="M17">
+        <v>0.7966666666666666</v>
+      </c>
+      <c r="N17">
         <v>1282.338</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>44</v>
@@ -1205,12 +1259,15 @@
         <v>699492</v>
       </c>
       <c r="M18">
+        <v>0.8233333333333334</v>
+      </c>
+      <c r="N18">
         <v>1191.492</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>43</v>
@@ -1246,10 +1303,13 @@
         <v>604409</v>
       </c>
       <c r="M19">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="N19">
         <v>629.809</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="H20">
         <v>4327</v>
       </c>
@@ -1260,7 +1320,7 @@
         <v>2557413</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="H21">
         <v>693</v>
       </c>

--- a/investment_results.xlsx
+++ b/investment_results.xlsx
@@ -555,7 +555,7 @@
         <v>15833208</v>
       </c>
       <c r="M2">
-        <v>0.68</v>
+        <v>0.7144444444444445</v>
       </c>
       <c r="N2">
         <v>44385.208</v>
@@ -598,9 +598,6 @@
       <c r="L3">
         <v>16677396</v>
       </c>
-      <c r="M3">
-        <v>0.7622222222222222</v>
-      </c>
       <c r="N3">
         <v>19910.796</v>
       </c>
@@ -643,7 +640,7 @@
         <v>10721617</v>
       </c>
       <c r="M4">
-        <v>0.8733333333333334</v>
+        <v>0.6411111111111111</v>
       </c>
       <c r="N4">
         <v>18212.717</v>
@@ -686,9 +683,6 @@
       <c r="L5">
         <v>1726879</v>
       </c>
-      <c r="M5">
-        <v>0.7944444444444446</v>
-      </c>
       <c r="N5">
         <v>17519.379</v>
       </c>
@@ -731,7 +725,7 @@
         <v>2507578</v>
       </c>
       <c r="M6">
-        <v>0.7144444444444445</v>
+        <v>0.7966666666666666</v>
       </c>
       <c r="N6">
         <v>16589.278</v>
@@ -774,9 +768,6 @@
       <c r="L7">
         <v>396837</v>
       </c>
-      <c r="M7">
-        <v>0.64</v>
-      </c>
       <c r="N7">
         <v>15299.437</v>
       </c>
@@ -818,9 +809,6 @@
       <c r="L8">
         <v>9053725</v>
       </c>
-      <c r="M8">
-        <v>0.8744444444444445</v>
-      </c>
       <c r="N8">
         <v>14582.025</v>
       </c>
@@ -862,9 +850,6 @@
       <c r="L9">
         <v>10964321</v>
       </c>
-      <c r="M9">
-        <v>0.6277777777777778</v>
-      </c>
       <c r="N9">
         <v>13493.221</v>
       </c>
@@ -906,9 +891,6 @@
       <c r="L10">
         <v>3829977</v>
       </c>
-      <c r="M10">
-        <v>0.83</v>
-      </c>
       <c r="N10">
         <v>13168.877</v>
       </c>
@@ -951,7 +933,7 @@
         <v>7559970</v>
       </c>
       <c r="M11">
-        <v>0.6411111111111111</v>
+        <v>0.8199999999999998</v>
       </c>
       <c r="N11">
         <v>12576.27</v>
@@ -994,9 +976,6 @@
       <c r="L12">
         <v>519646</v>
       </c>
-      <c r="M12">
-        <v>0.8233333333333333</v>
-      </c>
       <c r="N12">
         <v>1636.646</v>
       </c>
@@ -1038,9 +1017,6 @@
       <c r="L13">
         <v>904564</v>
       </c>
-      <c r="M13">
-        <v>0.7655555555555557</v>
-      </c>
       <c r="N13">
         <v>1615.764</v>
       </c>
@@ -1083,7 +1059,7 @@
         <v>165283</v>
       </c>
       <c r="M14">
-        <v>0.8155555555555556</v>
+        <v>0.7622222222222222</v>
       </c>
       <c r="N14">
         <v>1489.483</v>
@@ -1127,7 +1103,7 @@
         <v>632175</v>
       </c>
       <c r="M15">
-        <v>0.8199999999999998</v>
+        <v>0.8155555555555556</v>
       </c>
       <c r="N15">
         <v>1405.075</v>
@@ -1171,7 +1147,7 @@
         <v>424978</v>
       </c>
       <c r="M16">
-        <v>0.8233333333333334</v>
+        <v>0.83</v>
       </c>
       <c r="N16">
         <v>1295.778</v>
@@ -1214,9 +1190,6 @@
       <c r="L17">
         <v>705338</v>
       </c>
-      <c r="M17">
-        <v>0.7966666666666666</v>
-      </c>
       <c r="N17">
         <v>1282.338</v>
       </c>
@@ -1259,7 +1232,7 @@
         <v>699492</v>
       </c>
       <c r="M18">
-        <v>0.8233333333333334</v>
+        <v>0.6277777777777778</v>
       </c>
       <c r="N18">
         <v>1191.492</v>
@@ -1303,7 +1276,7 @@
         <v>604409</v>
       </c>
       <c r="M19">
-        <v>0.7944444444444444</v>
+        <v>0.7655555555555557</v>
       </c>
       <c r="N19">
         <v>629.809</v>
